--- a/data/Summer2017/L-curve/compiled_L-curve_data_2017-06-13.xlsx
+++ b/data/Summer2017/L-curve/compiled_L-curve_data_2017-06-13.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Alpha</t>
   </si>
@@ -90,9 +90,6 @@
     <t>15-genes_28-edges_db5_Sigmoid_estimation_missing-values_fixP-fixb.xlsx</t>
   </si>
   <si>
-    <t>15-genes_28-edges_db5_Sigmoid_estimation_missing-values_L-curve.xlsx</t>
-  </si>
-  <si>
     <t>15-genes_28-edges_db5_Sigmoid_estimation_missing-values_L-curve_no-GLN3-data.xlsx</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>15-genes_28-edges_db5_Sigmoid_estimation_missing-values_L-curve_no-GLN3-ZAP1-HAP4-HMO1-data.xlsx</t>
   </si>
   <si>
-    <t>15-genes_28-edges_db5_Sigmoid_estimation_no-missing-values_L-curve.xlsx</t>
-  </si>
-  <si>
     <t>15-genes_28-edges_db5-random7-fam_Sigmoid_estimation_missing-values_L-curve.xlsx</t>
   </si>
   <si>
@@ -127,6 +121,39 @@
   </si>
   <si>
     <t>L-curve ID</t>
+  </si>
+  <si>
+    <t>15-genes_28-edges_db5-random2_Sigmoid_estimation_missing-values_L-curve.xlsx</t>
+  </si>
+  <si>
+    <t>15-genes_28-edges_db5-random3_Sigmoid_estimation_missing-values_L-curve.xlsx</t>
+  </si>
+  <si>
+    <t>15-genes_28-edges_db5-random9_Sigmoid_estimation_missing-values_L-curve.xlsx</t>
+  </si>
+  <si>
+    <t>15-genes_28-edges_db5-random12-fam_Sigmoid_estimation_missing-values_L-curve.xlsx</t>
+  </si>
+  <si>
+    <t>15-genes_28-edges_db5-random15_Sigmoid_estimation_missing-values_L-curve.xlsx</t>
+  </si>
+  <si>
+    <t>15-genes_28-edges_db5-random16-fam_Sigmoid_estimation_missing-values_L-curve.xlsx</t>
+  </si>
+  <si>
+    <t>15-genes_28-edges_db5-random31_Sigmoid_estimation_missing-values_L-curve.xlsx</t>
+  </si>
+  <si>
+    <t>15-genes_28-edges_db5_Sigmoid_estimation_no-missing-values_L-curve.xlsx SEA120-14</t>
+  </si>
+  <si>
+    <t>15-genes_28-edges_db5_Sigmoid_estimation_missing-values_L-curve.xlsx SEA120-14</t>
+  </si>
+  <si>
+    <t>15-genes_28-edges_db5_Sigmoid_estimation_no-missing-values_L-curve.xlsx SEA120-15</t>
+  </si>
+  <si>
+    <t>15-genes_28-edges_db5_Sigmoid_estimation_missing-values_L-curve.xlsx SEA120-15</t>
   </si>
 </sst>
 </file>
@@ -443,11 +470,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -456,7 +481,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -467,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -475,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -483,7 +508,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -491,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -499,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -507,7 +532,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -515,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -523,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -531,7 +556,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -539,7 +564,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -547,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -555,7 +580,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -563,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -571,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -579,7 +604,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -587,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -595,7 +620,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -603,7 +628,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -611,7 +636,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -619,7 +644,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -627,7 +652,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -635,7 +660,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -643,7 +668,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -651,7 +676,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,7 +684,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -667,7 +692,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,7 +700,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -683,7 +708,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -691,7 +716,79 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/Summer2017/L-curve/compiled_L-curve_data_2017-06-13.xlsx
+++ b/data/Summer2017/L-curve/compiled_L-curve_data_2017-06-13.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="key-to-input-workbooks" sheetId="2" r:id="rId1"/>
     <sheet name="L-curve_1" sheetId="1" r:id="rId2"/>
+    <sheet name="L-curve_2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>Alpha</t>
   </si>
@@ -154,13 +155,40 @@
   </si>
   <si>
     <t>15-genes_28-edges_db5_Sigmoid_estimation_missing-values_L-curve.xlsx SEA120-15</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>minLSE</t>
+  </si>
+  <si>
+    <t>iteration count</t>
+  </si>
+  <si>
+    <t>LSE/minLSE ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -188,8 +216,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -798,23 +829,741 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.75464182426820414</v>
+      </c>
+      <c r="D2">
+        <v>4.193011781027968E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F2">
+        <v>6164</v>
+      </c>
+      <c r="G2" s="1">
+        <f>C2/E2</f>
+        <v>1.5555680033378358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.75025310390267075</v>
+      </c>
+      <c r="D3">
+        <v>5.0440080371274128E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F3">
+        <v>6793</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G17" si="0">C3/E3</f>
+        <v>1.5465213897568286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.73857263113767779</v>
+      </c>
+      <c r="D4">
+        <v>8.9883752633368147E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F4">
+        <v>6505</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5224440472179337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.73006463711878355</v>
+      </c>
+      <c r="D5">
+        <v>0.15161194424914923</v>
+      </c>
+      <c r="E5">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F5">
+        <v>9132</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5049062394225392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.72729065819670347</v>
+      </c>
+      <c r="D6">
+        <v>0.18262795190951306</v>
+      </c>
+      <c r="E6">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F6">
+        <v>7361</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4991881454680915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.72222150292140175</v>
+      </c>
+      <c r="D7">
+        <v>0.26322452421881404</v>
+      </c>
+      <c r="E7">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F7">
+        <v>8500</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4887389290363662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.70330251300549429</v>
+      </c>
+      <c r="D8">
+        <v>0.86957116796429701</v>
+      </c>
+      <c r="E8">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F8">
+        <v>17627</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4497405931076683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.69713722066249773</v>
+      </c>
+      <c r="D9">
+        <v>1.2966551284207413</v>
+      </c>
+      <c r="E9">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F9">
+        <v>27280</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4370318732997125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.69590886869380364</v>
+      </c>
+      <c r="D10">
+        <v>1.4336849334344886</v>
+      </c>
+      <c r="E10">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F10">
+        <v>22052</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4344998310011154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.69407791849277878</v>
+      </c>
+      <c r="D11">
+        <v>1.7205192390258266</v>
+      </c>
+      <c r="E11">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F11">
+        <v>32453</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4307256331541021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.69209739924266189</v>
+      </c>
+      <c r="D12">
+        <v>2.3361924715305347</v>
+      </c>
+      <c r="E12">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F12">
+        <v>50784</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4266431237086921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.69122371103867697</v>
+      </c>
+      <c r="D13">
+        <v>2.9523020373502535</v>
+      </c>
+      <c r="E13">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F13">
+        <v>63467</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4248421614888593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.69100479920756652</v>
+      </c>
+      <c r="D14">
+        <v>3.1987249130744675</v>
+      </c>
+      <c r="E14">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F14">
+        <v>75861</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4243909113340489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.69057612590236339</v>
+      </c>
+      <c r="D15">
+        <v>3.8815562608111458</v>
+      </c>
+      <c r="E15">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F15">
+        <v>106423</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4235072729561924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.6896647734039455</v>
+      </c>
+      <c r="D16">
+        <v>6.8100103250796806</v>
+      </c>
+      <c r="E16">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F16">
+        <v>158962</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4216286720879252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.68906251793296402</v>
+      </c>
+      <c r="D17">
+        <v>10.182325254169086</v>
+      </c>
+      <c r="E17">
+        <v>0.48512300500456629</v>
+      </c>
+      <c r="F17">
+        <v>258453</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4203872230847476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C2">
+        <v>0.76055463918448551</v>
+      </c>
+      <c r="D2">
+        <v>4.1591084704160737E-2</v>
+      </c>
+      <c r="F2">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.75623886812569385</v>
+      </c>
+      <c r="D3">
+        <v>4.9980459024403109E-2</v>
+      </c>
+      <c r="F3">
+        <v>7079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.74426670185430477</v>
+      </c>
+      <c r="D4">
+        <v>9.0423159094778063E-2</v>
+      </c>
+      <c r="F4">
+        <v>6393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>0.73536461078024529</v>
+      </c>
+      <c r="D5">
+        <v>0.15389860033536046</v>
+      </c>
+      <c r="F5">
+        <v>7589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="C6">
+        <v>0.73302331533688325</v>
+      </c>
+      <c r="D6">
+        <v>0.1800704006607203</v>
+      </c>
+      <c r="F6">
+        <v>6963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="C7">
+        <v>0.72921871882895672</v>
+      </c>
+      <c r="D7">
+        <v>0.23990523496203306</v>
+      </c>
+      <c r="F7">
+        <v>8217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.71826005408686455</v>
+      </c>
+      <c r="D8">
+        <v>0.5870952806206946</v>
+      </c>
+      <c r="F8">
+        <v>16598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.71084719152249976</v>
+      </c>
+      <c r="D9">
+        <v>1.1188078761247773</v>
+      </c>
+      <c r="F9">
+        <v>20085</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C10">
+        <v>0.70894481848963853</v>
+      </c>
+      <c r="D10">
+        <v>1.3317133504412537</v>
+      </c>
+      <c r="F10">
+        <v>21472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.69745507005803131</v>
+      </c>
+      <c r="D11">
+        <v>1.7957362693828958</v>
+      </c>
+      <c r="F11">
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.69544817132065029</v>
+      </c>
+      <c r="D12">
+        <v>2.4182352435659071</v>
+      </c>
+      <c r="F12">
+        <v>63216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.69457540288488795</v>
+      </c>
+      <c r="D13">
+        <v>3.0340505231205941</v>
+      </c>
+      <c r="F13">
+        <v>59357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="C14">
+        <v>0.6943560284763628</v>
+      </c>
+      <c r="D14">
+        <v>3.2782885437839986</v>
+      </c>
+      <c r="F14">
+        <v>77362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C15">
+        <v>0.69394642683132512</v>
+      </c>
+      <c r="D15">
+        <v>3.9314274804359539</v>
+      </c>
+      <c r="F15">
+        <v>108772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>0.69298308268635256</v>
+      </c>
+      <c r="D16">
+        <v>7.0049724535124724</v>
+      </c>
+      <c r="F16">
+        <v>212869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="C17">
+        <v>0.69245683313581596</v>
+      </c>
+      <c r="D17">
+        <v>10.074536375926405</v>
+      </c>
+      <c r="F17">
+        <v>254832</v>
       </c>
     </row>
   </sheetData>
